--- a/files/615-11.xlsx
+++ b/files/615-11.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\Расписание осень 2023\учебные группы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipko\WebstormProjects\schedule-viewer\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67CD35-984C-4BFA-86A3-5573FB084E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="246">
   <si>
     <t>Расписание учебных занятий на осенний семестр</t>
   </si>
@@ -991,11 +986,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1291,30 +1286,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,6 +1294,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1333,501 +1313,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF91C0D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2136,50 +1650,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46:W46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42:N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:29" ht="17.399999999999999">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -2188,33 +1702,33 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:29" ht="17.399999999999999">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -2223,7 +1737,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="20.399999999999999">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2233,34 +1747,34 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="42" t="s">
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="31" t="s">
         <v>245</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="26.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2347,53 +1861,53 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27" t="s">
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27" t="s">
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2481,8 +1995,8 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:29" ht="46.8">
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2059,7 @@
       <c r="W7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X7" s="35"/>
+      <c r="X7" s="27"/>
       <c r="Y7" s="10" t="s">
         <v>46</v>
       </c>
@@ -2556,8 +2070,8 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:29" ht="46.8">
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2575,7 +2089,7 @@
       <c r="H8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="35"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2622,8 +2136,8 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:29" ht="46.8">
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -2699,8 +2213,8 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:29" ht="46.8">
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
@@ -2766,8 +2280,8 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:29">
+      <c r="A11" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2855,8 +2369,8 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:29" ht="46.8">
+      <c r="A12" s="38"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -2930,8 +2444,8 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:29" ht="46.8">
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -3009,8 +2523,8 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:29" ht="46.8">
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
@@ -3086,8 +2600,8 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+    <row r="15" spans="1:29" ht="46.8">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -3161,8 +2675,8 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:29">
+      <c r="A16" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3250,8 +2764,8 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+    <row r="17" spans="1:29" ht="46.8">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
@@ -3312,7 +2826,7 @@
       <c r="W17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="34"/>
+      <c r="X17" s="26"/>
       <c r="Y17" s="10" t="s">
         <v>46</v>
       </c>
@@ -3323,8 +2837,8 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:29" ht="46.8">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
@@ -3386,7 +2900,7 @@
       <c r="W18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X18" s="34"/>
+      <c r="X18" s="26"/>
       <c r="Y18" s="10" t="s">
         <v>46</v>
       </c>
@@ -3397,8 +2911,8 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:29" ht="46.8">
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -3459,7 +2973,7 @@
       <c r="W19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="34"/>
+      <c r="X19" s="26"/>
       <c r="Y19" s="10" t="s">
         <v>46</v>
       </c>
@@ -3470,8 +2984,8 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:29" ht="46.8">
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
@@ -3523,7 +3037,7 @@
       <c r="W20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="34"/>
+      <c r="X20" s="26"/>
       <c r="Y20" s="10" t="s">
         <v>46</v>
       </c>
@@ -3534,8 +3048,8 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:29">
+      <c r="A21" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3623,8 +3137,8 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:29" ht="46.8">
+      <c r="A22" s="38"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3699,8 +3213,8 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
     </row>
-    <row r="23" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:29" ht="46.8">
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -3776,8 +3290,8 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
     </row>
-    <row r="24" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+    <row r="24" spans="1:29" ht="46.8">
+      <c r="A24" s="38"/>
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3846,8 +3360,8 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
     </row>
-    <row r="25" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:29" ht="46.8">
+      <c r="A25" s="38"/>
       <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3909,8 +3423,8 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:29">
+      <c r="A26" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3998,8 +3512,8 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+    <row r="27" spans="1:29" ht="46.8">
+      <c r="A27" s="38"/>
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
@@ -4064,7 +3578,7 @@
       <c r="W27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="X27" s="35"/>
+      <c r="X27" s="27"/>
       <c r="Y27" s="10" t="s">
         <v>46</v>
       </c>
@@ -4075,8 +3589,8 @@
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
     </row>
-    <row r="28" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+    <row r="28" spans="1:29" ht="46.8">
+      <c r="A28" s="38"/>
       <c r="B28" s="6" t="s">
         <v>17</v>
       </c>
@@ -4148,8 +3662,8 @@
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
     </row>
-    <row r="29" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:29" ht="46.8">
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
@@ -4221,8 +3735,8 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
     </row>
-    <row r="30" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:29" ht="46.8">
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
@@ -4282,8 +3796,8 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+    <row r="31" spans="1:29">
+      <c r="A31" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4371,8 +3885,8 @@
         <v>45346</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+    <row r="32" spans="1:29" ht="62.4">
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>16</v>
       </c>
@@ -4444,8 +3958,8 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
     </row>
-    <row r="33" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+    <row r="33" spans="1:29" ht="62.4">
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
@@ -4517,8 +4031,8 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
     </row>
-    <row r="34" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+    <row r="34" spans="1:29" ht="46.8">
+      <c r="A34" s="39"/>
       <c r="B34" s="13" t="s">
         <v>18</v>
       </c>
@@ -4586,115 +4100,115 @@
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
     </row>
-    <row r="36" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:29" ht="31.5" customHeight="1">
+      <c r="A36" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31" t="s">
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31" t="s">
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31" t="s">
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="Y36" s="31" t="s">
+      <c r="Y36" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="Z36" s="31" t="s">
+      <c r="Z36" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="AA36" s="31" t="s">
+      <c r="AA36" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="33"/>
-    </row>
-    <row r="37" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31" t="s">
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="36"/>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="37"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="33"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="36"/>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="37"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
       <c r="AA38" s="5" t="s">
         <v>186</v>
       </c>
@@ -4705,130 +4219,130 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A39" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="40">
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="29">
         <v>34</v>
       </c>
-      <c r="J39" s="37" t="s">
+      <c r="J39" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="37" t="s">
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="41" t="s">
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="Y39" s="40"/>
+      <c r="Y39" s="29"/>
       <c r="Z39" s="19"/>
       <c r="AA39" s="19"/>
       <c r="AB39" s="19"/>
       <c r="AC39" s="20"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A40" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40">
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="29">
         <v>37</v>
       </c>
-      <c r="J40" s="37" t="s">
+      <c r="J40" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="37" t="s">
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="41" t="s">
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="Y40" s="40"/>
+      <c r="Y40" s="29"/>
       <c r="Z40" s="19"/>
       <c r="AA40" s="19"/>
       <c r="AB40" s="19"/>
       <c r="AC40" s="20"/>
     </row>
-    <row r="41" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:29" ht="28.5" customHeight="1">
+      <c r="A41" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40">
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="29">
         <v>41</v>
       </c>
-      <c r="J41" s="37" t="s">
+      <c r="J41" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="37" t="s">
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="41" t="s">
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="Y41" s="40" t="s">
+      <c r="Y41" s="29" t="s">
         <v>183</v>
       </c>
       <c r="Z41" s="19"/>
@@ -4836,85 +4350,87 @@
       <c r="AB41" s="19"/>
       <c r="AC41" s="20"/>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A42" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="29">
         <v>113</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="37" t="s">
+      <c r="J42" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="41" t="s">
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="Y42" s="40"/>
+      <c r="Y42" s="29"/>
       <c r="Z42" s="19"/>
       <c r="AA42" s="19"/>
       <c r="AB42" s="19"/>
       <c r="AC42" s="20"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A43" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="40">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="29">
         <v>24</v>
       </c>
-      <c r="J43" s="37" t="s">
+      <c r="J43" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="37" t="s">
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="41" t="s">
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="Y43" s="40" t="s">
+      <c r="Y43" s="29" t="s">
         <v>238</v>
       </c>
       <c r="Z43" s="19"/>
@@ -4922,44 +4438,44 @@
       <c r="AB43" s="19"/>
       <c r="AC43" s="20"/>
     </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+    <row r="44" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A44" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40">
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="29">
         <v>27</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="37" t="s">
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="41" t="s">
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="Y44" s="40" t="s">
+      <c r="Y44" s="29" t="s">
         <v>238</v>
       </c>
       <c r="Z44" s="19"/>
@@ -4967,44 +4483,44 @@
       <c r="AB44" s="19"/>
       <c r="AC44" s="20"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A45" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40">
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="29">
         <v>108</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="J45" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="37" t="s">
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="41" t="s">
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="Y45" s="40" t="s">
+      <c r="Y45" s="29" t="s">
         <v>183</v>
       </c>
       <c r="Z45" s="19"/>
@@ -5012,44 +4528,44 @@
       <c r="AB45" s="19"/>
       <c r="AC45" s="20"/>
     </row>
-    <row r="46" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+    <row r="46" spans="1:29" ht="28.5" customHeight="1">
+      <c r="A46" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="40">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="29">
         <v>104</v>
       </c>
-      <c r="J46" s="37" t="s">
+      <c r="J46" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="37" t="s">
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="41" t="s">
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="Y46" s="40" t="s">
+      <c r="Y46" s="29" t="s">
         <v>238</v>
       </c>
       <c r="Z46" s="19"/>
@@ -5057,44 +4573,44 @@
       <c r="AB46" s="19"/>
       <c r="AC46" s="20"/>
     </row>
-    <row r="47" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+    <row r="47" spans="1:29" ht="28.5" customHeight="1">
+      <c r="A47" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="40">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="29">
         <v>93</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="J47" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="37" t="s">
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="41" t="s">
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="Y47" s="40" t="s">
+      <c r="Y47" s="29" t="s">
         <v>183</v>
       </c>
       <c r="Z47" s="19"/>
@@ -5102,44 +4618,44 @@
       <c r="AB47" s="19"/>
       <c r="AC47" s="20"/>
     </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+    <row r="48" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A48" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="40">
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="29">
         <v>117</v>
       </c>
-      <c r="J48" s="37" t="s">
+      <c r="J48" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="37" t="s">
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="41" t="s">
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="Y48" s="40" t="s">
+      <c r="Y48" s="29" t="s">
         <v>183</v>
       </c>
       <c r="Z48" s="19"/>
@@ -5147,44 +4663,44 @@
       <c r="AB48" s="19"/>
       <c r="AC48" s="20"/>
     </row>
-    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A49" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="40">
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="29">
         <v>108</v>
       </c>
-      <c r="J49" s="37" t="s">
+      <c r="J49" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="37" t="s">
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="41" t="s">
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="Y49" s="40" t="s">
+      <c r="Y49" s="29" t="s">
         <v>183</v>
       </c>
       <c r="Z49" s="19"/>
@@ -5192,7 +4708,7 @@
       <c r="AB49" s="19"/>
       <c r="AC49" s="20"/>
     </row>
-    <row r="51" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29">
       <c r="A51" s="21" t="s">
         <v>199</v>
       </c>
@@ -5231,7 +4747,7 @@
       <c r="AB51" s="22"/>
       <c r="AC51" s="22"/>
     </row>
-    <row r="52" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29">
       <c r="A52" s="23" t="s">
         <v>200</v>
       </c>
@@ -5270,7 +4786,7 @@
       <c r="AB52" s="22"/>
       <c r="AC52" s="22"/>
     </row>
-    <row r="53" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29">
       <c r="A53" s="23" t="s">
         <v>201</v>
       </c>
@@ -5309,7 +4825,7 @@
       <c r="AB53" s="22"/>
       <c r="AC53" s="22"/>
     </row>
-    <row r="54" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29">
       <c r="A54" s="23" t="s">
         <v>202</v>
       </c>
@@ -5348,7 +4864,7 @@
       <c r="AB54" s="22"/>
       <c r="AC54" s="22"/>
     </row>
-    <row r="55" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29">
       <c r="A55" s="23" t="s">
         <v>203</v>
       </c>
@@ -5385,7 +4901,7 @@
       <c r="AB55" s="22"/>
       <c r="AC55" s="22"/>
     </row>
-    <row r="56" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29">
       <c r="A56" s="23" t="s">
         <v>204</v>
       </c>
@@ -5422,7 +4938,7 @@
       <c r="AB56" s="22"/>
       <c r="AC56" s="22"/>
     </row>
-    <row r="57" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29">
       <c r="A57" s="23" t="s">
         <v>205</v>
       </c>
@@ -5459,7 +4975,7 @@
       <c r="AB57" s="22"/>
       <c r="AC57" s="22"/>
     </row>
-    <row r="58" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29">
       <c r="A58" s="23" t="s">
         <v>206</v>
       </c>
@@ -5496,7 +5012,7 @@
       <c r="AB58" s="22"/>
       <c r="AC58" s="22"/>
     </row>
-    <row r="59" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29">
       <c r="A59" s="23" t="s">
         <v>207</v>
       </c>
@@ -5533,7 +5049,7 @@
       <c r="AB59" s="22"/>
       <c r="AC59" s="22"/>
     </row>
-    <row r="60" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29">
       <c r="A60" s="23" t="s">
         <v>208</v>
       </c>
@@ -5568,7 +5084,7 @@
       <c r="AB60" s="22"/>
       <c r="AC60" s="22"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -5599,7 +5115,7 @@
       <c r="AB61" s="22"/>
       <c r="AC61" s="22"/>
     </row>
-    <row r="62" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="18">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -5632,7 +5148,7 @@
       <c r="AB62" s="22"/>
       <c r="AC62" s="22"/>
     </row>
-    <row r="63" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="18">
       <c r="U63" s="25" t="s">
         <v>230</v>
       </c>
@@ -5642,7 +5158,7 @@
       <c r="Y63" s="25"/>
       <c r="Z63" s="25"/>
     </row>
-    <row r="64" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="18">
       <c r="U64" s="25"/>
       <c r="V64" s="25"/>
       <c r="W64" s="25"/>
@@ -5650,7 +5166,7 @@
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
     </row>
-    <row r="65" spans="21:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="21:26" ht="18">
       <c r="U65" s="25"/>
       <c r="V65" s="25"/>
       <c r="W65" s="25"/>
@@ -5658,7 +5174,7 @@
       <c r="Y65" s="25"/>
       <c r="Z65" s="25"/>
     </row>
-    <row r="66" spans="21:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="21:26" ht="18">
       <c r="U66" s="25"/>
       <c r="V66" s="25"/>
       <c r="W66" s="25"/>
@@ -5670,20 +5186,37 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="O40:W40"/>
-    <mergeCell ref="O41:W41"/>
-    <mergeCell ref="O42:W42"/>
-    <mergeCell ref="O43:W43"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="O49:W49"/>
-    <mergeCell ref="O44:W44"/>
-    <mergeCell ref="O45:W45"/>
-    <mergeCell ref="O46:W46"/>
-    <mergeCell ref="O47:W47"/>
-    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="J1:V1"/>
+    <mergeCell ref="J2:V2"/>
+    <mergeCell ref="J3:V3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="Y36:Y38"/>
+    <mergeCell ref="Z36:Z38"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="B36:H38"/>
+    <mergeCell ref="X36:X38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="O36:W38"/>
+    <mergeCell ref="O39:W39"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="J36:N38"/>
     <mergeCell ref="J39:N39"/>
@@ -5700,37 +5233,20 @@
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="J46:N46"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="Y36:Y38"/>
-    <mergeCell ref="Z36:Z38"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="B36:H38"/>
-    <mergeCell ref="X36:X38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="O36:W38"/>
-    <mergeCell ref="O39:W39"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="J1:V1"/>
-    <mergeCell ref="J2:V2"/>
-    <mergeCell ref="J3:V3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="O40:W40"/>
+    <mergeCell ref="O41:W41"/>
+    <mergeCell ref="O42:W42"/>
+    <mergeCell ref="O43:W43"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="O49:W49"/>
+    <mergeCell ref="O44:W44"/>
+    <mergeCell ref="O45:W45"/>
+    <mergeCell ref="O46:W46"/>
+    <mergeCell ref="O47:W47"/>
+    <mergeCell ref="O48:W48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
